--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_18-04.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_18-04.xlsx
@@ -134,10 +134,19 @@
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
+    <t>FLUMOX 1000MG 15 F.C. TABS.</t>
+  </si>
+  <si>
     <t>FLUREST N 20 TABS</t>
   </si>
   <si>
     <t>4:1</t>
+  </si>
+  <si>
+    <t>FOURVENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t>GABAVERONA 300MG CAPS</t>
@@ -1509,17 +1518,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>16</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1527,7 +1536,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1535,17 +1544,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1561,13 +1570,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1579,7 +1588,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1593,7 +1602,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1605,7 +1614,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1613,13 +1622,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1631,7 +1640,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1639,17 +1648,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1657,7 +1666,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1665,17 +1674,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1691,17 +1700,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1717,17 +1726,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1735,7 +1744,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1743,17 +1752,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1761,7 +1770,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1769,17 +1778,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1795,17 +1804,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1821,17 +1830,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1839,7 +1848,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1847,17 +1856,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1865,7 +1874,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1879,11 +1888,11 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1891,7 +1900,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1899,13 +1908,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1917,7 +1926,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1925,17 +1934,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1951,13 +1960,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -1977,17 +1986,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1995,7 +2004,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2003,17 +2012,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2021,7 +2030,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2029,17 +2038,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2047,7 +2056,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2055,13 +2064,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2081,17 +2090,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2107,17 +2116,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2125,7 +2134,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2133,17 +2142,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2151,7 +2160,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2165,7 +2174,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2177,7 +2186,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2185,17 +2194,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2203,7 +2212,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2217,7 +2226,7 @@
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2229,7 +2238,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2237,13 +2246,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>20.399999999999999</v>
+        <v>39</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2263,17 +2272,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2281,7 +2290,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2289,17 +2298,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>23</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2321,11 +2330,11 @@
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2341,17 +2350,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>149.5</v>
+        <v>23</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2367,17 +2376,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2385,7 +2394,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2393,13 +2402,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>23</v>
+        <v>149.5</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2411,7 +2420,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2419,17 +2428,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2437,7 +2446,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2445,17 +2454,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2463,7 +2472,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2471,13 +2480,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2489,7 +2498,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2497,17 +2506,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2515,7 +2524,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2523,13 +2532,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2541,7 +2550,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2555,7 +2564,7 @@
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2567,7 +2576,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2575,13 +2584,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2593,7 +2602,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2601,17 +2610,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>66.640000000000001</v>
+        <v>68</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2619,7 +2628,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2627,13 +2636,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2653,17 +2662,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>-375</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2679,17 +2688,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2697,7 +2706,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2705,13 +2714,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>40</v>
+        <v>-375</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2723,7 +2732,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2731,17 +2740,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>13.880000000000001</v>
+        <v>14</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2757,13 +2766,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2783,17 +2792,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>188.09999999999999</v>
+        <v>13.880000000000001</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2801,7 +2810,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2809,17 +2818,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2827,7 +2836,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2841,7 +2850,7 @@
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>50</v>
+        <v>188.09999999999999</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2853,7 +2862,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2861,17 +2870,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2887,13 +2896,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
@@ -2913,13 +2922,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -2931,7 +2940,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2939,13 +2948,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -2957,7 +2966,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2965,13 +2974,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -2983,7 +2992,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -2991,13 +3000,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3009,7 +3018,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3017,51 +3026,103 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="85" ht="26.25" customHeight="1">
-      <c r="K85" s="10">
-        <v>3117.5599999999999</v>
-      </c>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="11">
+    <row r="85" ht="25.5" customHeight="1">
+      <c r="A85" s="6">
+        <v>82</v>
+      </c>
+      <c t="s" r="B85" s="7">
         <v>112</v>
       </c>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c t="s" r="F86" s="12">
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c t="s" r="H85" s="8">
+        <v>70</v>
+      </c>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="9">
+        <v>25</v>
+      </c>
+      <c r="M85" s="9"/>
+      <c t="s" r="N85" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" ht="24.75" customHeight="1">
+      <c r="A86" s="6">
+        <v>83</v>
+      </c>
+      <c t="s" r="B86" s="7">
         <v>113</v>
       </c>
-      <c r="G86" s="12"/>
-      <c r="H86" s="13"/>
-      <c t="s" r="I86" s="14">
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c t="s" r="H86" s="8">
         <v>114</v>
       </c>
-      <c r="J86" s="14"/>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="14"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="9">
+        <v>45</v>
+      </c>
+      <c r="M86" s="9"/>
+      <c t="s" r="N86" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" ht="26.25" customHeight="1">
+      <c r="K87" s="10">
+        <v>3172.23</v>
+      </c>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="11">
+        <v>115</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c t="s" r="F88" s="12">
+        <v>116</v>
+      </c>
+      <c r="G88" s="12"/>
+      <c r="H88" s="13"/>
+      <c t="s" r="I88" s="14">
+        <v>117</v>
+      </c>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="254">
+  <mergeCells count="260">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3312,10 +3373,16 @@
     <mergeCell ref="B84:G84"/>
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="I86:N86"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="I88:N88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
